--- a/result.xlsx
+++ b/result.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,513 +479,482 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Аршинин</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Тейлор</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Николаевич</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>менеджер</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>9:40:00</t>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Путин</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Андрей</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Сергеевич</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>техник — сантехник</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>8:24:00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Комариков</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Глеб</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Рафаилович</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>техник — сантехник</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>8:36:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Трофимов</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Марс</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Валентинович</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>плотник</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8:42:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Сорокин</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Андрей</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Эдуардович</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>техник — сантехник</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>8:43:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Ленина</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Ринат</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Николаевна</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Николаевич</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>менеджер</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>8:52:00</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Горшков</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Вадим</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>Анатольевич</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>менеджер</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>9:01:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Малышева</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Павел</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Викторович</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>охранник</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>9:28:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>Фёдоров</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Наталья</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Алексеевич</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>охранник</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>9:47:00</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>Соколов</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Юрий </t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>Викторовна</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>охранник</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>9:11:00</t>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Балуин</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Антон</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Валентинович</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>электрик</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>8:54:00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Пугачёв</t>
+          <t>Горшков</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Андрей</t>
+          <t>Вадим</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>Геннадьевна</t>
+          <t>Анатольевич</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>охранник</t>
+          <t>менеджер</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>9:42:00</t>
+          <t>9:01:00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Богданов</t>
+          <t>Чернов</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
+          <t>Светлана</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Михайловна</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>техник — сантехник</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>9:01:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Богданова</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
           <t>Людмила</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>Валентиновна</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>плотник</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>9:02:00</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Трофимов</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Марс</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Валентиновна</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>плотник</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>8:42:00</t>
-        </is>
-      </c>
-    </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Петров</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Светлана</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Александровна</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Тарасов</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Иван</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>техник — сантехник</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>8:30:00</t>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>9:05:00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Тарасов</t>
+          <t>Соколов</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Иван</t>
+          <t xml:space="preserve">Юрий </t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>Владимирович</t>
+          <t>Викторович</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>техник — сантехник</t>
+          <t>охранник</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>9:05:00</t>
+          <t>9:11:00</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Комариков</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Глеб</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Рафиловна</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>техник — сантехник</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>8:36:00</t>
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Шубарина</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Ольга</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Борисовна</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>уборщик</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>9:13:00</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Путин</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Андрей</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Сергеевна</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>техник — сантехник</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>8:24:00</t>
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Сидоров</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Дмитрий</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Аркадьевич</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>уборщик</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>9:23:00</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Сорокин</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Андрей</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Эдуардовна</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>техник — сантехник</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>8:43:00</t>
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Малышев</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Павел</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Викторович</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>охранник</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>9:28:00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Чернов</t>
+          <t>Аршинин</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Светлана</t>
+          <t>Тейлор</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>Михайловна</t>
+          <t>Николаевич</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>техник — сантехник</t>
+          <t>менеджер</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>9:01:00</t>
+          <t>9:40:00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Сидоров</t>
+          <t>Байден</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Дмитрий</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>Аркадьевич</t>
-        </is>
-      </c>
+          <t>Джо</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="n"/>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>уборщик</t>
+          <t>охранник</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>9:23:00</t>
+          <t>9:42:00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Шубарин</t>
+          <t>Фёдорова</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Ольга</t>
+          <t>Наталья</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>Борисович</t>
+          <t>Алексеевна</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>уборщик</t>
+          <t>охранник</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>9:13:00</t>
+          <t>9:47:00</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Балуин</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Антон</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Валентиновна</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Баранов</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Сергей</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>Анатольевич</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
         <is>
           <t>электрик</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>8:54:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>Баранов</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>Салават</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>Анатольевна</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>электрик</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
+      <c r="E20" s="3" t="inlineStr">
         <is>
           <t>9:50:00</t>
         </is>
